--- a/MDY_Internship_Project_Progress.xlsx
+++ b/MDY_Internship_Project_Progress.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thantoeaung.MDCR\Desktop\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF62C7-ED1C-479A-BA42-74EC7C5B4FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E39C79-0943-4804-8FE8-C1A8851CA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CEAE1945-32FC-4617-A815-8BBD8B18C3B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CEAE1945-32FC-4617-A815-8BBD8B18C3B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="2" r:id="rId1"/>
-    <sheet name="Employee" sheetId="1" r:id="rId2"/>
-    <sheet name="Department_Head" sheetId="3" r:id="rId3"/>
+    <sheet name="AttendanceManagement" sheetId="4" r:id="rId1"/>
+    <sheet name="EmployeeManagement" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Admin" sheetId="2" r:id="rId4"/>
+    <sheet name="Employee" sheetId="1" r:id="rId5"/>
+    <sheet name="Department_Head" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
   <si>
     <t xml:space="preserve"> - Login Form</t>
     <phoneticPr fontId="1"/>
@@ -114,12 +106,168 @@
   <si>
     <t>Doned</t>
   </si>
+  <si>
+    <t>ViewAttendance</t>
+  </si>
+  <si>
+    <t>displayCurrentDateTime</t>
+  </si>
+  <si>
+    <t>checkIn</t>
+  </si>
+  <si>
+    <t>Not yet started</t>
+  </si>
+  <si>
+    <t>checkOut</t>
+  </si>
+  <si>
+    <t>DailyAttendance</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MonthlyAttendance</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Planned Date</t>
+  </si>
+  <si>
+    <t>Finished Date</t>
+  </si>
+  <si>
+    <t>30/5/2025</t>
+  </si>
+  <si>
+    <t>viewAttendance</t>
+  </si>
+  <si>
+    <t>Planned Hours</t>
+  </si>
+  <si>
+    <t>Delayed Hour</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>checkLeaveOrAbsent</t>
+  </si>
+  <si>
+    <t>Total Used Hour For Finished Work</t>
+  </si>
+  <si>
+    <t>checkHoliday</t>
+  </si>
+  <si>
+    <t>highlightRows</t>
+  </si>
+  <si>
+    <t>searchByMonth</t>
+  </si>
+  <si>
+    <t>13/6/2025</t>
+  </si>
+  <si>
+    <t>16/5/2025</t>
+  </si>
+  <si>
+    <t>17/6/2025</t>
+  </si>
+  <si>
+    <t>18/6/2025</t>
+  </si>
+  <si>
+    <t>displayDailyAttendance</t>
+  </si>
+  <si>
+    <t>chooseDepartment</t>
+  </si>
+  <si>
+    <t>checkHolidayLabel</t>
+  </si>
+  <si>
+    <t>searchByDate</t>
+  </si>
+  <si>
+    <t>updateAttendance</t>
+  </si>
+  <si>
+    <t>Ahead of schedule</t>
+  </si>
+  <si>
+    <t>UploadProfilePicture</t>
+  </si>
+  <si>
+    <t>GenerateEmployeeNumber</t>
+  </si>
+  <si>
+    <t>GeneratePassword</t>
+  </si>
+  <si>
+    <t>Validate Form</t>
+  </si>
+  <si>
+    <t>Add Function</t>
+  </si>
+  <si>
+    <t>Control Name</t>
+  </si>
+  <si>
+    <t>AddNewEmployeeControl</t>
+  </si>
+  <si>
+    <t>ShowDataGridView</t>
+  </si>
+  <si>
+    <t>ViewDetails</t>
+  </si>
+  <si>
+    <t>UpdateEmployeeInformation</t>
+  </si>
+  <si>
+    <t>ViewProfile</t>
+  </si>
+  <si>
+    <t>ViewEmployeeList</t>
+  </si>
+  <si>
+    <t>19/6/2025</t>
+  </si>
+  <si>
+    <t>20/6/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t>24/6/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       </t>
+  </si>
+  <si>
+    <t>25/6/2025</t>
+  </si>
+  <si>
+    <t>26/6/2025</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>DisplayProfile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +290,25 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,12 +367,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,23 +733,901 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69AC105-43A3-44B4-90D4-35BF95D8AF38}">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8">
+        <v>45906</v>
+      </c>
+      <c r="H2" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45906</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45936</v>
+      </c>
+      <c r="G3" s="8">
+        <v>45936</v>
+      </c>
+      <c r="H3" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45906</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45936</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45936</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45936</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45967</v>
+      </c>
+      <c r="G5" s="10">
+        <v>45936</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45967</v>
+      </c>
+      <c r="E6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45967</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45967</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45997</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45997</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="K20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD1E04-88FB-4BF2-8AF5-8D8A434A4C91}">
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8">
+        <v>45906</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45936</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45936</v>
+      </c>
+      <c r="G3" s="8">
+        <v>45936</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45967</v>
+      </c>
+      <c r="E4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45936</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45936</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45997</v>
+      </c>
+      <c r="E5" s="9">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45967</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="19" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="K19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A66F800-8ED1-4696-898E-D865DCF46B28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EC34AD-B735-43C0-93AE-F0457A30D1A5}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -566,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +1655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,61 +1669,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -659,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,50 +1745,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
+    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-    </row>
+    <row r="19" spans="2:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BAFDC6-49FB-43D6-AA6D-27D02D749BA2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -727,61 +1797,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="14.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -792,7 +1862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,23 +1873,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -827,24 +1890,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1FFEB-6554-4236-80F9-3516A6100DD8}">
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="14.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -861,110 +1924,110 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
